--- a/biology/Médecine/Angiomatose/Angiomatose.xlsx
+++ b/biology/Médecine/Angiomatose/Angiomatose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angiomatose est une maladie qui se caractérise par l'apparition d'angiomes, c'est-à-dire de malformations des vaisseaux sanguins et des vaisseaux lymphatiques. Ces malformations sont multiples et sont présentes à la surface de la peau ou dans la profondeur des organes. Quelquefois, elles sont associées à d'autres malformations.
 Leur origine est généralement congénitales, et, plus tard dans la vie, parfois infectieuse (ex. : angiomatose bacillaire pouvant être induite par une bartonellose à Bartonella henselae).
@@ -512,11 +524,13 @@
           <t>Syndromes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La présence d'hémangiomes multiples caractérise divers syndromes, parmi lesquels il faut citer :
 l'angiomatose héréditaire hémorragique, ou maladie de Rendu-Osler, qui est systémique (hémangiomes multiples cutanéomuqueux localisés sur la peau, les muqueuses buccale, nasale… les viscères) ;
-l'angiomatose encéphalotrigéminée, ou maladie de Sturge-Weber (hémangiome plan de la face associé à un hémangiome pie-mérien voire à un hémangiome choroïdien) (métamérique)[1] ;
+l'angiomatose encéphalotrigéminée, ou maladie de Sturge-Weber (hémangiome plan de la face associé à un hémangiome pie-mérien voire à un hémangiome choroïdien) (métamérique) ;
 la maladie de Von Hippel-Lindau qui associe une angiomatose rétinienne, un hémangioblastome du cervelet et des atteintes viscérales multiples (phéochromocytome, cancer du rein). Le gène a été localisé sur le bras court du chromosome 3 (3p25).</t>
         </is>
       </c>
